--- a/场景及其元素.xlsx
+++ b/场景及其元素.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>场景描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -106,6 +106,82 @@
   </si>
   <si>
     <t>各种零配件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗门线索放到包租公与另一个女NPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一端在包租婆房间，另一端在女NPC房间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老余家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坏的电视机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辉家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序员家标配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自行车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉席</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大货架</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柜台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以买卖各种东西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理发店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理发用品</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -152,10 +228,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -218,8 +294,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:E11" totalsRowShown="0">
-  <autoFilter ref="A2:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:E23" totalsRowShown="0">
+  <autoFilter ref="A2:E23"/>
   <tableColumns count="5">
     <tableColumn id="1" name="序号"/>
     <tableColumn id="2" name="场景描述"/>
@@ -518,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E232"/>
+  <dimension ref="A1:E234"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -535,13 +611,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -567,7 +643,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D3" t="s">
@@ -638,27 +714,102 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:4" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -859,6 +1010,8 @@
     <row r="230" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="231" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="232" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="19.95" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
@@ -874,14 +1027,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="K10:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="10" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
